--- a/Timer1 setup calculator.xlsx
+++ b/Timer1 setup calculator.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arnan\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\MicroEmbedLab\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9204"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Hz</t>
   </si>
@@ -48,6 +48,15 @@
   </si>
   <si>
     <t>PIC16F Timer1 Setup Calculator</t>
+  </si>
+  <si>
+    <t>คาบ</t>
+  </si>
+  <si>
+    <t>ms</t>
+  </si>
+  <si>
+    <t>ความถี่</t>
   </si>
 </sst>
 </file>
@@ -241,6 +250,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -276,6 +302,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -452,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E10"/>
+  <dimension ref="B1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -466,25 +509,34 @@
     <col min="5" max="5" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:9" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B1" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="3">
-        <v>10</v>
+        <v>500</v>
       </c>
       <c r="D3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="G3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3">
+        <v>10</v>
+      </c>
+      <c r="I3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>4</v>
       </c>
@@ -494,8 +546,18 @@
       <c r="D4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4">
+        <f>1000/H3</f>
+        <v>100</v>
+      </c>
+      <c r="I4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>1</v>
       </c>
@@ -509,68 +571,68 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="2">
         <v>1</v>
       </c>
       <c r="C7">
         <f>65536 - INT(1000000/($C$3*(4/$C$4)*B7))</f>
-        <v>-134464</v>
+        <v>61536</v>
       </c>
       <c r="D7" s="4">
         <f>1000000/((4/$C$4)*B7*(65536-C7))</f>
-        <v>10</v>
+        <v>500</v>
       </c>
       <c r="E7" s="1">
         <f>((1000000/((4/$C$4)*B7*(65536-C7)))-$C$3)/$C$3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="2">
         <v>2</v>
       </c>
       <c r="C8">
         <f t="shared" ref="C8:C10" si="0">65536 - INT(1000000/($C$3*(4/$C$4)*B8))</f>
-        <v>-34464</v>
+        <v>63536</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ref="D8:D10" si="1">1000000/((4/$C$4)*B8*(65536-C8))</f>
-        <v>10</v>
+        <v>500</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" ref="E8:E10" si="2">((1000000/((4/$C$4)*B8*(65536-C8)))-$C$3)/$C$3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="2">
         <v>4</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>15536</v>
+        <v>64536</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>500</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="6">
         <v>8</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>40536</v>
+        <v>65036</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>500</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" si="2"/>
